--- a/spreadsheets/fatores_lucro.xlsx
+++ b/spreadsheets/fatores_lucro.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="235">
   <si>
     <t>Variável Determinante</t>
   </si>
@@ -554,7 +554,7 @@
     <t>Roteiros e Atores</t>
   </si>
   <si>
-    <t>$200M+ (Robert Downey Jr. + elenco)</t>
+    <t>$200M</t>
   </si>
   <si>
     <t>$356M</t>
@@ -572,7 +572,7 @@
     <t>Parasite (2019)</t>
   </si>
   <si>
-    <t>$2M (atores locais)</t>
+    <t>$2M</t>
   </si>
   <si>
     <t>$11M</t>
@@ -584,7 +584,7 @@
     <t>$247M</t>
   </si>
   <si>
-    <t>$20M (Jesse Eisenberg + Andrew Garfield)</t>
+    <t>$20M</t>
   </si>
   <si>
     <t>$40M</t>
@@ -599,7 +599,7 @@
     <t>Justice League (2017)</t>
   </si>
   <si>
-    <t>$100M+ (Ben Affleck, Gal Gadot)</t>
+    <t>$100M</t>
   </si>
   <si>
     <t>$300M</t>
@@ -608,10 +608,10 @@
     <t>$657M</t>
   </si>
   <si>
-    <t>Prejuízo ($60M)</t>
+    <t>-$60M</t>
   </si>
   <si>
-    <t>$50M (Leonardo DiCaprio)</t>
+    <t>$50M</t>
   </si>
   <si>
     <t>$160M</t>
@@ -626,13 +626,7 @@
     <t>The Irishman (2019)</t>
   </si>
   <si>
-    <t>$160M (De Niro, Pacino, Pesci)</t>
-  </si>
-  <si>
-    <t>$200M</t>
-  </si>
-  <si>
-    <t>$8M (Netflix)*</t>
+    <t>$8M</t>
   </si>
   <si>
     <t>-$192M</t>
@@ -641,7 +635,7 @@
     <t>Little Women (2019)</t>
   </si>
   <si>
-    <t>$10M (Saoirse Ronan, Meryl Streep)</t>
+    <t>$10M</t>
   </si>
   <si>
     <t>$218M</t>
@@ -653,10 +647,7 @@
     <t>Lady Bird (2017)</t>
   </si>
   <si>
-    <t>$3M (Saoirse Ronan)</t>
-  </si>
-  <si>
-    <t>$10M</t>
+    <t>$3M</t>
   </si>
   <si>
     <t>$79M</t>
@@ -668,7 +659,7 @@
     <t>Crazy Rich Asians (2018)</t>
   </si>
   <si>
-    <t>$5M (Henry Golding + elenco asiático)</t>
+    <t>$5M</t>
   </si>
   <si>
     <t>$30M</t>
@@ -681,12 +672,6 @@
   </si>
   <si>
     <t>Pulp Fiction (1994)</t>
-  </si>
-  <si>
-    <t>$10M (Travolta, Samuel L. Jackson)</t>
-  </si>
-  <si>
-    <t>$8M</t>
   </si>
   <si>
     <t>$214M</t>
@@ -738,7 +723,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -769,6 +754,11 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="DeepSeek-CJK-patch"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -821,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -850,16 +840,19 @@
     <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="2" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3284,7 +3277,7 @@
       <c r="B57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>180</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -3326,7 +3319,7 @@
       <c r="B58" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>186</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -3338,7 +3331,7 @@
       <c r="F58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="11">
         <v>0.02245</v>
       </c>
       <c r="H58" s="3"/>
@@ -3368,7 +3361,7 @@
       <c r="B59" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>190</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -3380,7 +3373,7 @@
       <c r="F59" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="11">
         <v>4.6</v>
       </c>
       <c r="H59" s="3"/>
@@ -3410,7 +3403,7 @@
       <c r="B60" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>195</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -3419,10 +3412,10 @@
       <c r="E60" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="11">
         <v>-0.2</v>
       </c>
       <c r="H60" s="3"/>
@@ -3452,7 +3445,7 @@
       <c r="B61" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>199</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -3464,7 +3457,7 @@
       <c r="F61" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="11">
         <v>4.22</v>
       </c>
       <c r="H61" s="3"/>
@@ -3494,19 +3487,19 @@
       <c r="B62" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="10">
+      <c r="G62" s="11">
         <v>-0.96</v>
       </c>
       <c r="H62" s="3"/>
@@ -3534,21 +3527,21 @@
         <v>179</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G63" s="10">
+        <v>209</v>
+      </c>
+      <c r="G63" s="11">
         <v>4.45</v>
       </c>
       <c r="H63" s="3"/>
@@ -3576,21 +3569,21 @@
         <v>179</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="F64" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64" s="10">
+      <c r="G64" s="11">
         <v>6.9</v>
       </c>
       <c r="H64" s="3"/>
@@ -3618,21 +3611,21 @@
         <v>179</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="F65" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G65" s="10">
+      <c r="G65" s="11">
         <v>6.93</v>
       </c>
       <c r="H65" s="3"/>
@@ -3660,21 +3653,21 @@
         <v>179</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G66" s="11">
+        <v>221</v>
+      </c>
+      <c r="G66" s="12">
         <v>0.02575</v>
       </c>
       <c r="H66" s="3"/>
@@ -29869,176 +29862,176 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="G2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="B3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="G4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="14" t="s">
         <v>62</v>
       </c>
     </row>
